--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H2">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N2">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O2">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P2">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q2">
-        <v>84.94088796488857</v>
+        <v>129.5236621699627</v>
       </c>
       <c r="R2">
-        <v>84.94088796488857</v>
+        <v>1165.712959529664</v>
       </c>
       <c r="S2">
-        <v>0.003362463650006736</v>
+        <v>0.004664425838796621</v>
       </c>
       <c r="T2">
-        <v>0.003362463650006736</v>
+        <v>0.004664425838796621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H3">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N3">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O3">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P3">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q3">
-        <v>214.852224279927</v>
+        <v>264.0710213962427</v>
       </c>
       <c r="R3">
-        <v>214.852224279927</v>
+        <v>2376.639192566184</v>
       </c>
       <c r="S3">
-        <v>0.008505124111287562</v>
+        <v>0.009509765820717333</v>
       </c>
       <c r="T3">
-        <v>0.008505124111287562</v>
+        <v>0.009509765820717333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H4">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N4">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O4">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P4">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q4">
-        <v>291.5178402541463</v>
+        <v>387.5299652488507</v>
       </c>
       <c r="R4">
-        <v>291.5178402541463</v>
+        <v>3487.769687239655</v>
       </c>
       <c r="S4">
-        <v>0.01154000346203378</v>
+        <v>0.01395578810026798</v>
       </c>
       <c r="T4">
-        <v>0.01154000346203378</v>
+        <v>0.01395578810026798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H5">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N5">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O5">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P5">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q5">
-        <v>316.3557904878879</v>
+        <v>388.0403468791548</v>
       </c>
       <c r="R5">
-        <v>316.3557904878879</v>
+        <v>3492.363121912392</v>
       </c>
       <c r="S5">
-        <v>0.01252323670579449</v>
+        <v>0.01397416804123131</v>
       </c>
       <c r="T5">
-        <v>0.01252323670579449</v>
+        <v>0.01397416804123131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H6">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I6">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J6">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N6">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O6">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P6">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q6">
-        <v>228.9561730382805</v>
+        <v>284.216781988776</v>
       </c>
       <c r="R6">
-        <v>228.9561730382805</v>
+        <v>2557.951037898984</v>
       </c>
       <c r="S6">
-        <v>0.009063441973953706</v>
+        <v>0.01023525801786287</v>
       </c>
       <c r="T6">
-        <v>0.009063441973953706</v>
+        <v>0.01023525801786287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H7">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I7">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J7">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N7">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O7">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P7">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q7">
-        <v>135.8825329842583</v>
+        <v>184.704323427624</v>
       </c>
       <c r="R7">
-        <v>135.8825329842583</v>
+        <v>1662.338910848616</v>
       </c>
       <c r="S7">
-        <v>0.005379035806869307</v>
+        <v>0.006651600211880464</v>
       </c>
       <c r="T7">
-        <v>0.005379035806869307</v>
+        <v>0.006651600211880464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N8">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O8">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P8">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q8">
-        <v>319.0885755865398</v>
+        <v>398.79631474232</v>
       </c>
       <c r="R8">
-        <v>319.0885755865398</v>
+        <v>3589.16683268088</v>
       </c>
       <c r="S8">
-        <v>0.012631416532703</v>
+        <v>0.0143615135932462</v>
       </c>
       <c r="T8">
-        <v>0.012631416532703</v>
+        <v>0.0143615135932462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N9">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O9">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P9">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q9">
-        <v>807.1129446565308</v>
+        <v>813.0603196261701</v>
       </c>
       <c r="R9">
-        <v>807.1129446565308</v>
+        <v>7317.542876635532</v>
       </c>
       <c r="S9">
-        <v>0.0319503127749183</v>
+        <v>0.0292800519984374</v>
       </c>
       <c r="T9">
-        <v>0.0319503127749183</v>
+        <v>0.02928005199843741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J10">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N10">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O10">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P10">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q10">
-        <v>1095.114668959089</v>
+        <v>1193.18369635553</v>
       </c>
       <c r="R10">
-        <v>1095.114668959089</v>
+        <v>10738.65326719977</v>
       </c>
       <c r="S10">
-        <v>0.0433511275333761</v>
+        <v>0.04296911290547398</v>
       </c>
       <c r="T10">
-        <v>0.0433511275333761</v>
+        <v>0.04296911290547398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J11">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N11">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O11">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P11">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q11">
-        <v>1188.420806326644</v>
+        <v>1194.75513365021</v>
       </c>
       <c r="R11">
-        <v>1188.420806326644</v>
+        <v>10752.79620285189</v>
       </c>
       <c r="S11">
-        <v>0.04704473732175771</v>
+        <v>0.04302570374454196</v>
       </c>
       <c r="T11">
-        <v>0.04704473732175771</v>
+        <v>0.04302570374454196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J12">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N12">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O12">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P12">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q12">
-        <v>860.0957780984045</v>
+        <v>875.08802134017</v>
       </c>
       <c r="R12">
-        <v>860.0957780984045</v>
+        <v>7875.792192061531</v>
       </c>
       <c r="S12">
-        <v>0.03404768726429617</v>
+        <v>0.03151380303472525</v>
       </c>
       <c r="T12">
-        <v>0.03404768726429617</v>
+        <v>0.03151380303472525</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J13">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N13">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O13">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P13">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q13">
-        <v>510.4557408790077</v>
+        <v>568.6945710603301</v>
       </c>
       <c r="R13">
-        <v>510.4557408790077</v>
+        <v>5118.251139542971</v>
       </c>
       <c r="S13">
-        <v>0.02020686285210973</v>
+        <v>0.02047991546252254</v>
       </c>
       <c r="T13">
-        <v>0.02020686285210973</v>
+        <v>0.02047991546252254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H14">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I14">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J14">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N14">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O14">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P14">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q14">
-        <v>318.8540063346368</v>
+        <v>443.0087788943894</v>
       </c>
       <c r="R14">
-        <v>318.8540063346368</v>
+        <v>3987.079010049504</v>
       </c>
       <c r="S14">
-        <v>0.01262213089180813</v>
+        <v>0.0159536995825303</v>
       </c>
       <c r="T14">
-        <v>0.01262213089180813</v>
+        <v>0.0159536995825303</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H15">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I15">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J15">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N15">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O15">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P15">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q15">
-        <v>806.5196176178511</v>
+        <v>903.2000699349694</v>
       </c>
       <c r="R15">
-        <v>806.5196176178511</v>
+        <v>8128.800629414725</v>
       </c>
       <c r="S15">
-        <v>0.03192682537505792</v>
+        <v>0.03252617840807612</v>
       </c>
       <c r="T15">
-        <v>0.03192682537505792</v>
+        <v>0.03252617840807612</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H16">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I16">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J16">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N16">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O16">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P16">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q16">
-        <v>1094.309625318233</v>
+        <v>1325.465739724057</v>
       </c>
       <c r="R16">
-        <v>1094.309625318233</v>
+        <v>11929.19165751652</v>
       </c>
       <c r="S16">
-        <v>0.04331925913590697</v>
+        <v>0.04773287398788773</v>
       </c>
       <c r="T16">
-        <v>0.04331925913590697</v>
+        <v>0.04773287398788773</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H17">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I17">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J17">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N17">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O17">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P17">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q17">
-        <v>1187.547171227131</v>
+        <v>1327.211394062602</v>
       </c>
       <c r="R17">
-        <v>1187.547171227131</v>
+        <v>11944.90254656341</v>
       </c>
       <c r="S17">
-        <v>0.04701015366792664</v>
+        <v>0.04779573875765952</v>
       </c>
       <c r="T17">
-        <v>0.04701015366792664</v>
+        <v>0.04779573875765952</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H18">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I18">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J18">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N18">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O18">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P18">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q18">
-        <v>859.4635021767027</v>
+        <v>972.104458912836</v>
       </c>
       <c r="R18">
-        <v>859.4635021767027</v>
+        <v>8748.940130215524</v>
       </c>
       <c r="S18">
-        <v>0.03402265803686008</v>
+        <v>0.03500757375291366</v>
       </c>
       <c r="T18">
-        <v>0.03402265803686008</v>
+        <v>0.03500757375291366</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H19">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I19">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J19">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N19">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O19">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P19">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q19">
-        <v>510.0804932818555</v>
+        <v>631.742767362564</v>
       </c>
       <c r="R19">
-        <v>510.0804932818555</v>
+        <v>5685.684906263076</v>
       </c>
       <c r="S19">
-        <v>0.02019200832874168</v>
+        <v>0.0227504167052666</v>
       </c>
       <c r="T19">
-        <v>0.02019200832874168</v>
+        <v>0.0227504167052666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H20">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I20">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J20">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N20">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O20">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P20">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q20">
-        <v>393.305114767212</v>
+        <v>499.7829421274488</v>
       </c>
       <c r="R20">
-        <v>393.305114767212</v>
+        <v>4498.046479147039</v>
       </c>
       <c r="S20">
-        <v>0.01556934691232731</v>
+        <v>0.01799825939132292</v>
       </c>
       <c r="T20">
-        <v>0.01556934691232731</v>
+        <v>0.01799825939132292</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H21">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I21">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J21">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N21">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O21">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P21">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q21">
-        <v>994.8386548930084</v>
+        <v>1018.950435719082</v>
       </c>
       <c r="R21">
-        <v>994.8386548930084</v>
+        <v>9170.553921471741</v>
       </c>
       <c r="S21">
-        <v>0.03938160872631896</v>
+        <v>0.03669459820078628</v>
       </c>
       <c r="T21">
-        <v>0.03938160872631896</v>
+        <v>0.03669459820078628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H22">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I22">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J22">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N22">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O22">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P22">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q22">
-        <v>1349.826454195312</v>
+        <v>1495.331918120629</v>
       </c>
       <c r="R22">
-        <v>1349.826454195312</v>
+        <v>13457.98726308566</v>
       </c>
       <c r="S22">
-        <v>0.05343412924910048</v>
+        <v>0.05385012066217416</v>
       </c>
       <c r="T22">
-        <v>0.05343412924910048</v>
+        <v>0.05385012066217416</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H23">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I23">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J23">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N23">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O23">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P23">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q23">
-        <v>1464.834586336598</v>
+        <v>1497.301288261402</v>
       </c>
       <c r="R23">
-        <v>1464.834586336598</v>
+        <v>13475.71159435262</v>
       </c>
       <c r="S23">
-        <v>0.05798683258250684</v>
+        <v>0.05392104191947096</v>
       </c>
       <c r="T23">
-        <v>0.05798683258250684</v>
+        <v>0.05392104191947096</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H24">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I24">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J24">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N24">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O24">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P24">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q24">
-        <v>1060.144720298965</v>
+        <v>1096.68532470886</v>
       </c>
       <c r="R24">
-        <v>1060.144720298965</v>
+        <v>9870.16792237974</v>
       </c>
       <c r="S24">
-        <v>0.04196680975627831</v>
+        <v>0.03949399885627509</v>
       </c>
       <c r="T24">
-        <v>0.04196680975627831</v>
+        <v>0.0394939988562751</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H25">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I25">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J25">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N25">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O25">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P25">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q25">
-        <v>629.182205539512</v>
+        <v>712.70429387014</v>
       </c>
       <c r="R25">
-        <v>629.182205539512</v>
+        <v>6414.33864483126</v>
       </c>
       <c r="S25">
-        <v>0.02490675981904248</v>
+        <v>0.02566601552222107</v>
       </c>
       <c r="T25">
-        <v>0.02490675981904248</v>
+        <v>0.02566601552222108</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H26">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I26">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J26">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N26">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O26">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P26">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q26">
-        <v>431.6986333794016</v>
+        <v>539.3211920910151</v>
       </c>
       <c r="R26">
-        <v>431.6986333794016</v>
+        <v>4853.890728819136</v>
       </c>
       <c r="S26">
-        <v>0.01708918987397269</v>
+        <v>0.01942211686771867</v>
       </c>
       <c r="T26">
-        <v>0.01708918987397269</v>
+        <v>0.01942211686771867</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H27">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I27">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J27">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N27">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O27">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P27">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q27">
-        <v>1091.952460380556</v>
+        <v>1099.560463857402</v>
       </c>
       <c r="R27">
-        <v>1091.952460380556</v>
+        <v>9896.044174716617</v>
       </c>
       <c r="S27">
-        <v>0.04322594858065015</v>
+        <v>0.03959753880496028</v>
       </c>
       <c r="T27">
-        <v>0.04322594858065015</v>
+        <v>0.03959753880496028</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H28">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I28">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J28">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N28">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O28">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P28">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q28">
-        <v>1481.593332241247</v>
+        <v>1613.628887011727</v>
       </c>
       <c r="R28">
-        <v>1481.593332241247</v>
+        <v>14522.65998310554</v>
       </c>
       <c r="S28">
-        <v>0.05865024304682145</v>
+        <v>0.05811024911362959</v>
       </c>
       <c r="T28">
-        <v>0.05865024304682145</v>
+        <v>0.05811024911362959</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H29">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I29">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J29">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N29">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O29">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P29">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q29">
-        <v>1607.828287264134</v>
+        <v>1615.75405568489</v>
       </c>
       <c r="R29">
-        <v>1607.828287264134</v>
+        <v>14541.78650116401</v>
       </c>
       <c r="S29">
-        <v>0.06364737055271885</v>
+        <v>0.05818678101139121</v>
       </c>
       <c r="T29">
-        <v>0.06364737055271885</v>
+        <v>0.05818678101139121</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H30">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I30">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J30">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N30">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O30">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P30">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q30">
-        <v>1163.633550019636</v>
+        <v>1183.445025460424</v>
       </c>
       <c r="R30">
-        <v>1163.633550019636</v>
+        <v>10651.00522914382</v>
       </c>
       <c r="S30">
-        <v>0.04606351084399631</v>
+        <v>0.04261840240673081</v>
       </c>
       <c r="T30">
-        <v>0.04606351084399631</v>
+        <v>0.04261840240673081</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H31">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I31">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J31">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N31">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O31">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P31">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q31">
-        <v>690.6014899877639</v>
+        <v>769.0869315031761</v>
       </c>
       <c r="R31">
-        <v>690.6014899877639</v>
+        <v>6921.782383528584</v>
       </c>
       <c r="S31">
-        <v>0.02733809902816446</v>
+        <v>0.02769647565150569</v>
       </c>
       <c r="T31">
-        <v>0.02733809902816446</v>
+        <v>0.02769647565150569</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H32">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I32">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J32">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N32">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O32">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P32">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q32">
-        <v>138.3409690548731</v>
+        <v>185.2181233247965</v>
       </c>
       <c r="R32">
-        <v>138.3409690548731</v>
+        <v>1666.963109923168</v>
       </c>
       <c r="S32">
-        <v>0.005476355273634533</v>
+        <v>0.006670103251990598</v>
       </c>
       <c r="T32">
-        <v>0.005476355273634533</v>
+        <v>0.006670103251990598</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H33">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I33">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J33">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N33">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O33">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P33">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q33">
-        <v>349.924113375956</v>
+        <v>377.6201057633232</v>
       </c>
       <c r="R33">
-        <v>349.924113375956</v>
+        <v>3398.580951869908</v>
       </c>
       <c r="S33">
-        <v>0.01385206982971327</v>
+        <v>0.01359891273194738</v>
       </c>
       <c r="T33">
-        <v>0.01385206982971327</v>
+        <v>0.01359891273194738</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H34">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I34">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J34">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N34">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O34">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P34">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q34">
-        <v>474.7873666474121</v>
+        <v>554.1657153063525</v>
       </c>
       <c r="R34">
-        <v>474.7873666474121</v>
+        <v>4987.491437757171</v>
       </c>
       <c r="S34">
-        <v>0.01879489725247821</v>
+        <v>0.01995670009745608</v>
       </c>
       <c r="T34">
-        <v>0.01879489725247821</v>
+        <v>0.01995670009745608</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H35">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I35">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J35">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N35">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O35">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P35">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q35">
-        <v>515.2402767475853</v>
+        <v>554.8955582258673</v>
       </c>
       <c r="R35">
-        <v>515.2402767475853</v>
+        <v>4994.060024032805</v>
       </c>
       <c r="S35">
-        <v>0.02039626313183008</v>
+        <v>0.01998298331177394</v>
       </c>
       <c r="T35">
-        <v>0.02039626313183008</v>
+        <v>0.01998298331177394</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H36">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I36">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J36">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N36">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O36">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P36">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q36">
-        <v>372.8948402600147</v>
+        <v>406.428432422612</v>
       </c>
       <c r="R36">
-        <v>372.8948402600147</v>
+        <v>3657.855891803508</v>
       </c>
       <c r="S36">
-        <v>0.0147613873093446</v>
+        <v>0.01463636257694754</v>
       </c>
       <c r="T36">
-        <v>0.0147613873093446</v>
+        <v>0.01463636257694754</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H37">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I37">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J37">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N37">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O37">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P37">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q37">
-        <v>221.3082738014642</v>
+        <v>264.126164919188</v>
       </c>
       <c r="R37">
-        <v>221.3082738014642</v>
+        <v>2377.135484272692</v>
       </c>
       <c r="S37">
-        <v>0.008760692805692845</v>
+        <v>0.009511751657659859</v>
       </c>
       <c r="T37">
-        <v>0.008760692805692845</v>
+        <v>0.009511751657659859</v>
       </c>
     </row>
   </sheetData>
